--- a/Phenoloxidase Activity data/SEG.xlsx
+++ b/Phenoloxidase Activity data/SEG.xlsx
@@ -65,9 +65,6 @@
     <t>Exploratory</t>
   </si>
   <si>
-    <t>Soil Type</t>
-  </si>
-  <si>
     <t>Depth (cm)</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>F_2018-2022</t>
+  </si>
+  <si>
+    <t>Soil_Type</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,25 +633,25 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
@@ -660,10 +660,10 @@
         <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>91233</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
       <c r="U2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>91234</v>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>91235</v>
@@ -849,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
         <v>17</v>
       </c>
-      <c r="T4" t="s">
-        <v>18</v>
-      </c>
       <c r="U4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>91236</v>
@@ -914,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
         <v>17</v>
       </c>
-      <c r="T5" t="s">
-        <v>18</v>
-      </c>
       <c r="U5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>91237</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>91238</v>
@@ -1044,16 +1044,16 @@
         <v>2.46</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
         <v>17</v>
       </c>
-      <c r="T7" t="s">
-        <v>18</v>
-      </c>
       <c r="U7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1061,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>91239</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
         <v>17</v>
       </c>
-      <c r="T8" t="s">
-        <v>18</v>
-      </c>
       <c r="U8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>91240</v>
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1191,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>91241</v>
@@ -1239,16 +1239,16 @@
         <v>2.46</v>
       </c>
       <c r="R10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" t="s">
         <v>17</v>
       </c>
-      <c r="T10" t="s">
-        <v>18</v>
-      </c>
       <c r="U10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1256,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>91242</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" t="s">
         <v>17</v>
       </c>
-      <c r="T11" t="s">
-        <v>18</v>
-      </c>
       <c r="U11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1321,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>91243</v>
@@ -1369,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>91244</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
         <v>17</v>
       </c>
-      <c r="T13" t="s">
-        <v>18</v>
-      </c>
       <c r="U13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1451,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>91245</v>
@@ -1499,16 +1499,16 @@
         <v>3.54</v>
       </c>
       <c r="R14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1516,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>91246</v>
@@ -1564,16 +1564,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>91247</v>
@@ -1629,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
         <v>17</v>
       </c>
-      <c r="T16" t="s">
-        <v>18</v>
-      </c>
       <c r="U16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>91248</v>
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>91249</v>
@@ -1759,16 +1759,16 @@
         <v>2.46</v>
       </c>
       <c r="R18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
         <v>17</v>
       </c>
-      <c r="T18" t="s">
-        <v>18</v>
-      </c>
       <c r="U18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1776,7 +1776,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>91250</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1841,7 +1841,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>91251</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1906,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>91252</v>
@@ -1954,16 +1954,16 @@
         <v>2.46</v>
       </c>
       <c r="R21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
         <v>17</v>
       </c>
-      <c r="T21" t="s">
-        <v>18</v>
-      </c>
       <c r="U21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -1971,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>91253</v>
@@ -2019,16 +2019,16 @@
         <v>1.64</v>
       </c>
       <c r="R22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -2036,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>91254</v>
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2101,7 +2101,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>91255</v>
@@ -2149,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" t="s">
         <v>17</v>
       </c>
-      <c r="T24" t="s">
-        <v>18</v>
-      </c>
       <c r="U24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -2166,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>91256</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" t="s">
         <v>17</v>
       </c>
-      <c r="T25" t="s">
-        <v>18</v>
-      </c>
       <c r="U25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -2231,7 +2231,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>91257</v>
@@ -2279,16 +2279,16 @@
         <v>3.1</v>
       </c>
       <c r="R26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" t="s">
         <v>17</v>
       </c>
-      <c r="T26" t="s">
-        <v>18</v>
-      </c>
       <c r="U26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -2296,7 +2296,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>91258</v>
@@ -2344,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" t="s">
         <v>17</v>
       </c>
-      <c r="T27" t="s">
-        <v>18</v>
-      </c>
       <c r="U27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -2361,7 +2361,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>91259</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" t="s">
         <v>17</v>
       </c>
-      <c r="T28" t="s">
-        <v>18</v>
-      </c>
       <c r="U28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -2426,7 +2426,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>91260</v>
@@ -2474,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" t="s">
         <v>17</v>
       </c>
-      <c r="T29" t="s">
-        <v>18</v>
-      </c>
       <c r="U29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -2491,7 +2491,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>91261</v>
@@ -2539,16 +2539,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" t="s">
         <v>17</v>
       </c>
-      <c r="T30" t="s">
-        <v>18</v>
-      </c>
       <c r="U30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -2556,7 +2556,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>91262</v>
@@ -2604,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -2621,7 +2621,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>91263</v>
@@ -2669,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -2686,7 +2686,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>91264</v>
@@ -2734,16 +2734,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -2751,7 +2751,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>91265</v>
@@ -2799,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -2816,7 +2816,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>91266</v>
@@ -2864,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -2881,7 +2881,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>91267</v>
@@ -2929,16 +2929,16 @@
         <v>3.13</v>
       </c>
       <c r="R36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -2946,7 +2946,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>91268</v>
@@ -2994,16 +2994,16 @@
         <v>0.92</v>
       </c>
       <c r="R37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>91269</v>
@@ -3059,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -3076,7 +3076,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>91270</v>
@@ -3124,16 +3124,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -3141,7 +3141,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>91271</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -3206,7 +3206,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>91272</v>
@@ -3254,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -3271,7 +3271,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>91273</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -3336,7 +3336,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>91274</v>
@@ -3384,16 +3384,16 @@
         <v>8.31</v>
       </c>
       <c r="R43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -3401,7 +3401,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>91275</v>
@@ -3449,16 +3449,16 @@
         <v>9.5</v>
       </c>
       <c r="R44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -3466,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>91276</v>
@@ -3514,16 +3514,16 @@
         <v>8.36</v>
       </c>
       <c r="R45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -3531,7 +3531,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <v>91277</v>
@@ -3579,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -3596,7 +3596,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>91278</v>
@@ -3644,16 +3644,16 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48">
         <v>91279</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49">
         <v>91280</v>
@@ -3774,16 +3774,16 @@
         <v>1.64</v>
       </c>
       <c r="R49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -3791,7 +3791,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>91281</v>
@@ -3839,16 +3839,16 @@
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -3856,7 +3856,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>91282</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
